--- a/Files/Tabellen/Hashing-Evaluationsmatrix.xlsx
+++ b/Files/Tabellen/Hashing-Evaluationsmatrix.xlsx
@@ -71,7 +71,7 @@
     <t>PBKDF2 gewichtet</t>
   </si>
   <si>
-    <t>Geschwindigkeit (langsamer = besser)</t>
+    <t>Skalierbarkeit</t>
   </si>
 </sst>
 </file>
@@ -95,6 +95,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -231,8 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -516,7 +517,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,21 +574,21 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E5" si="0">B3*C3</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F5" si="1">B3*D3</f>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,11 +642,11 @@
       <c r="B6" s="10"/>
       <c r="C6" s="5">
         <f>SUM(C2:C5)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <f>SUM(D2:D5)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -655,13 +656,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <f>SUM(E2:E5)</f>
-        <v>114</v>
-      </c>
-      <c r="D7" s="17">
+        <v>155</v>
+      </c>
+      <c r="D7" s="16">
         <f>SUM(F2:F5)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
